--- a/results/DT/125Hz_2classes_normalized/res_hyperopt.xlsx
+++ b/results/DT/125Hz_2classes_normalized/res_hyperopt.xlsx
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 11, 'max_features': 0.5594107191333725, 'min_samples_leaf': 0.016365949104358943, 'min_samples_split': 0.06503963226782447}</t>
+          <t>{'max_depth': 15, 'max_features': 0.5541661573990224, 'min_samples_leaf': 0.03713191287654268, 'min_samples_split': 0.0466176503348124}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.316, 'kurt_10_25': 0.03, 'var_10_25': 0.156, 'max_10_50': 0.031, 'coef_var_10_50': 0.055, 'min_10_50': 0.052, 'max_50_100': 0.142, 'kurt_50_100': 0.189, 'skew_50_100': 0.029}</t>
+          <t>{'mean_10_25': 0.338, 'kurt_10_25': 0.012, 'var_10_25': 0.166, 'max_10_50': 0.033, 'coef_var_10_50': 0.059, 'min_10_50': 0.056, 'max_50_100': 0.116, 'kurt_50_100': 0.202, 'coef_var_50_100': 0.017}</t>
         </is>
       </c>
     </row>
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 41, 'max_features': 0.3350235510496972, 'min_samples_leaf': 0.0016165104919798818, 'min_samples_split': 0.0016500370683153673}</t>
+          <t>{'max_depth': 8, 'max_features': 0.19795037106718236, 'min_samples_leaf': 0.0012853888950154764, 'min_samples_split': 0.010201235759475836}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.083, 'coef_var_10_25': 0.069, 'min_10_25': 0.116, 'std_class_10_25': 0.057, 'var_10_25': 0.019, 'skew_10_50': 0.013, 'mad_10_50': 0.008, 'percScore_10_50': 0.015, 'score_at_perc_10_50': 0.016, 'coef_kstatvar_10_50': 0.013, 'std_class_10_50': 0.006, 'var_10_50': 0.119, 'mean_25_75': 0.01, 'max_25_75': 0.011, 'mean_50_100': 0.042, 'max_50_100': 0.018, 'kurt_50_100': 0.023, 'max_75_125': 0.312, 'kurt_75_125': 0.019, 'coef_var_75_125': 0.008, 'std_class_75_125': 0.023}</t>
+          <t>{'mean_10_25': 0.116, 'coef_var_10_25': 0.029, 'min_10_25': 0.168, 'kurt_10_50': 0.012, 'std_class_10_50': 0.04, 'mean_25_75': 0.072, 'coef_var_25_75': 0.074, 'min_25_75': 0.051, 'std_class_25_75': 0.014, 'max_50_100': 0.021, 'kurt_50_100': 0.089, 'coef_kstatvar_50_100': 0.007, 'std_class_50_100': 0.011, 'var_50_100': 0.01, 'max_75_125': 0.016, 'kurt_75_125': 0.074, 'percScore_75_125': 0.037, 'min_75_125': 0.011, 'std_class_75_125': 0.146}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.79</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 73, 'max_features': 0.45340433368904, 'min_samples_leaf': 0.0016985548662959964, 'min_samples_split': 0.013623172168503275}</t>
+          <t>{'max_depth': 52, 'max_features': 0.4571730298872215, 'min_samples_leaf': 0.0012302392584328159, 'min_samples_split': 0.009077116991020063}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.044, 'max_10_25': 0.063, 'kurt_10_25': 0.007, 'skew_10_25': 0.034, 'coef_var_10_25': 0.09, 'var_10_25': 0.093, 'percScore_10_50': 0.005, 'coef_var_10_50': 0.03, 'var_10_50': 0.259, 'mean_25_75': 0.034, 'max_25_75': 0.023, 'percScore_25_75': 0.005, 'max_50_100': 0.161, 'var_50_100': 0.014, 'max_75_125': 0.108, 'skew_75_125': 0.002, 'score_at_perc_75_125': 0.006, 'coef_kstatvar_75_125': 0.023}</t>
+          <t>{'mean_10_25': 0.043, 'max_10_25': 0.04, 'kurt_10_25': 0.007, 'skew_10_25': 0.033, 'coef_var_10_25': 0.088, 'var_10_25': 0.029, 'percScore_10_50': 0.005, 'coef_var_10_50': 0.077, 'min_10_50': 0.011, 'var_10_50': 0.253, 'mean_25_75': 0.033, 'max_25_75': 0.023, 'percScore_25_75': 0.005, 'max_50_100': 0.157, 'skew_50_100': 0.022, 'var_50_100': 0.013, 'max_75_125': 0.106, 'kurt_75_125': 0.014, 'skew_75_125': 0.002, 'score_at_perc_75_125': 0.006, 'coef_var_75_125': 0.011, 'coef_kstatvar_75_125': 0.023}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="D5" t="n">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 11, 'max_features': 0.37440531190608395, 'min_samples_leaf': 0.04586481295776293, 'min_samples_split': 0.19958229416295561}</t>
+          <t>{'max_depth': 59, 'max_features': 0.3704656873161353, 'min_samples_leaf': 0.006369586725231216, 'min_samples_split': 0.023995668693416433}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.078, 'mean_10_50': 0.055, 'min_10_50': 0.079, 'max_50_100': 0.437, 'percScore_75_125': 0.007, 'coef_var_75_125': 0.229, 'min_75_125': 0.115}</t>
+          <t>{'mean_10_25': 0.039, 'max_10_25': 0.028, 'kurt_10_25': 0.02, 'skew_10_25': 0.004, 'coef_kstatvar_10_25': 0.025, 'std_class_10_25': 0.048, 'var_10_25': 0.06, 'coef_kstatvar_10_50': 0.03, 'min_10_50': 0.073, 'std_class_10_50': 0.144, 'var_10_50': 0.008, 'mean_25_75': 0.007, 'skew_25_75': 0.068, 'percScore_25_75': 0.007, 'var_25_75': 0.043, 'max_50_100': 0.108, 'skew_50_100': 0.031, 'min_50_100': 0.005, 'max_75_125': 0.18, 'kurt_75_125': 0.006, 'min_75_125': 0.066}</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D6" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 97, 'max_features': 0.297389286077522, 'min_samples_leaf': 0.001242038563925657, 'min_samples_split': 0.02393278166981152}</t>
+          <t>{'max_depth': 16, 'max_features': 0.7121873051173677, 'min_samples_leaf': 0.031127635817782696, 'min_samples_split': 0.056506048313415096}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.036, 'mean_10_25': 0.008, 'score_at_perc_10_25': 0.031, 'std_class_10_25': 0.083, 'score_at_perc_10_50': 0.061, 'coef_var_10_50': 0.188, 'min_10_50': 0.192, 'entropy_25_75': 0.015, 'percScore_50_100': 0.028, 'mean_75_125': 0.048, 'max_75_125': 0.124, 'kurt_75_125': 0.029, 'coef_var_75_125': 0.06, 'min_75_125': 0.098}</t>
+          <t>{'mean_10_25': 0.224, 'skew_10_25': 0.002, 'coef_kstatvar_10_25': 0.002, 'min_10_25': 0.038, 'std_class_10_25': 0.037, 'var_10_25': 0.044, 'score_at_perc_10_50': 0.017, 'min_10_50': 0.086, 'min_25_75': 0.215, 'kurt_75_125': 0.164, 'coef_var_75_125': 0.084, 'std_class_75_125': 0.088}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 89, 'max_features': 0.49018491014437404, 'min_samples_leaf': 0.001551428400770111, 'min_samples_split': 0.013634413592762535}</t>
+          <t>{'max_depth': 9, 'max_features': 0.8886425003363732, 'min_samples_leaf': 0.00213365723488145, 'min_samples_split': 0.023132246879735592}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.255, 'min_10_25': 0.043, 'var_10_25': 0.055, 'score_at_perc_10_50': 0.015, 'min_10_50': 0.103, 'mean_25_75': 0.105, 'coef_var_25_75': 0.013, 'max_50_100': 0.135, 'skew_50_100': 0.015, 'coef_var_50_100': 0.014, 'max_75_125': 0.094, 'kurt_75_125': 0.146, 'skew_75_125': 0.007, 'score_at_perc_75_125': 0.001}</t>
+          <t>{'mean_10_25': 0.143, 'skew_10_25': 0.015, 'percScore_10_25': 0.037, 'coef_var_10_25': 0.08, 'mean_10_50': 0.076, 'std_class_10_50': 0.069, 'max_25_75': 0.015, 'percScore_25_75': 0.014, 'coef_var_25_75': 0.08, 'skew_50_100': 0.019, 'var_50_100': 0.059, 'max_75_125': 0.343, 'score_at_perc_75_125': 0.001, 'std_class_75_125': 0.048}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D8" t="n">
         <v>0.98</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 33, 'max_features': 0.37761561163507507, 'min_samples_leaf': 0.03495429563977229, 'min_samples_split': 0.044062513861712185}</t>
+          <t>{'max_depth': 42, 'max_features': 0.3459761803152841, 'min_samples_leaf': 0.019019623517530258, 'min_samples_split': 0.057047514108364575}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.175, 'var_10_25': 0.137, 'max_10_50': 0.024, 'skew_10_50': 0.008, 'min_10_50': 0.139, 'kurt_25_75': 0.001, 'std_class_25_75': 0.024, 'mean_50_100': 0.038, 'kurt_50_100': 0.16, 'percScore_50_100': 0.009, 'var_50_100': 0.091, 'kurt_75_125': 0.142, 'score_at_perc_75_125': 0.001, 'min_75_125': 0.053}</t>
+          <t>{'mean_10_25': 0.216, 'kurt_10_50': 0.001, 'coef_var_10_50': 0.12, 'std_class_10_50': 0.133, 'kurt_25_75': 0.018, 'coef_var_25_75': 0.041, 'min_25_75': 0.012, 'var_25_75': 0.052, 'max_50_100': 0.05, 'kurt_50_100': 0.143, 'score_at_perc_50_100': 0.022, 'max_75_125': 0.191}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D9" t="n">
         <v>0.82</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 94, 'max_features': 0.07112938715536671, 'min_samples_leaf': 0.001431576278650041, 'min_samples_split': 0.0015100471973717444}</t>
+          <t>{'max_depth': 47, 'max_features': 0.4946868742569419, 'min_samples_leaf': 0.012467649726811296, 'min_samples_split': 0.051303360595332956}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.063, 'mean_10_25': 0.11, 'kurt_10_25': 0.014, 'skew_10_25': 0.005, 'percScore_10_25': 0.006, 'score_at_perc_10_25': 0.02, 'coef_var_10_25': 0.055, 'std_class_10_25': 0.022, 'var_10_25': 0.005, 'score_at_perc_10_50': 0.011, 'coef_var_10_50': 0.058, 'coef_kstatvar_10_50': 0.006, 'std_class_10_50': 0.027, 'var_10_50': 0.015, 'mean_25_75': 0.054, 'skew_25_75': 0.001, 'score_at_perc_25_75': 0.005, 'coef_var_25_75': 0.01, 'coef_kstatvar_25_75': 0.014, 'min_25_75': 0.017, 'std_class_25_75': 0.021, 'max_50_100': 0.047, 'skew_50_100': 0.01, 'mad_50_100': 0.011, 'entropy_50_100': 0.01, 'score_at_perc_50_100': 0.001, 'var_50_100': 0.04, 'max_75_125': 0.094, 'kurt_75_125': 0.006, 'percScore_75_125': 0.063, 'entropy_75_125': 0.024, 'score_at_perc_75_125': 0.017, 'coef_var_75_125': 0.087, 'coef_kstatvar_75_125': 0.01, 'min_75_125': 0.041}</t>
+          <t>{'var_75_125': 0.044, 'mean_10_25': 0.153, 'skew_10_25': 0.003, 'score_at_perc_10_25': 0.051, 'min_10_25': 0.104, 'std_class_10_50': 0.116, 'var_10_50': 0.027, 'mean_50_100': 0.002, 'max_50_100': 0.166, 'score_at_perc_50_100': 0.002, 'min_50_100': 0.043, 'var_50_100': 0.016, 'max_75_125': 0.25, 'kurt_75_125': 0.003, 'coef_kstatvar_75_125': 0.02}</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 47, 'max_features': 0.519836403309543, 'min_samples_leaf': 0.31619357578381657, 'min_samples_split': 0.137444145280122}</t>
+          <t>{'max_depth': 24, 'max_features': 0.5197625943417485, 'min_samples_leaf': 0.31616866258492105, 'min_samples_split': 0.32733139598798755}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 63, 'max_features': 0.2987903011765535, 'min_samples_leaf': 0.017554196630640333, 'min_samples_split': 0.06063898358449474}</t>
+          <t>{'max_depth': 77, 'max_features': 0.3014808722679361, 'min_samples_leaf': 0.016161127364405017, 'min_samples_split': 0.06310086130964668}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -733,16 +733,16 @@
         <v>0.95</v>
       </c>
       <c r="D12" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 95, 'max_features': 0.6303494950820994, 'min_samples_leaf': 0.012698379916475808, 'min_samples_split': 0.010491110266163076}</t>
+          <t>{'max_depth': 83, 'max_features': 0.7027453164873491, 'min_samples_leaf': 0.011485149940870555, 'min_samples_split': 0.02572688477304532}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.062, 'mad_10_25': 0.05, 'min_10_25': 0.057, 'std_class_10_25': 0.054, 'var_10_25': 0.009, 'mean_10_50': 0.059, 'skew_10_50': 0.01, 'std_class_10_50': 0.154, 'percScore_25_75': 0.004, 'coef_var_25_75': 0.122, 'std_class_25_75': 0.002, 'mean_50_100': 0.041, 'max_50_100': 0.002, 'std_class_50_100': 0.015, 'max_75_125': 0.333, 'entropy_75_125': 0.006, 'min_75_125': 0.021}</t>
+          <t>{'mean_10_25': 0.089, 'mad_10_25': 0.051, 'score_at_perc_10_25': 0.027, 'min_10_25': 0.112, 'var_10_25': 0.009, 'kurt_10_50': 0.01, 'min_10_50': 0.156, 'std_class_10_50': 0.006, 'coef_var_25_75': 0.124, 'std_class_25_75': 0.002, 'var_25_75': 0.021, 'percScore_50_100': 0.01, 'coef_var_50_100': 0.002, 'var_50_100': 0.024, 'max_75_125': 0.337, 'std_class_75_125': 0.021}</t>
         </is>
       </c>
     </row>
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="D13" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 87, 'max_features': 0.44360856932377224, 'min_samples_leaf': 0.04251726209027409, 'min_samples_split': 0.029131389267480143}</t>
+          <t>{'max_depth': 52, 'max_features': 0.46183757386913343, 'min_samples_leaf': 0.0011046233378396043, 'min_samples_split': 0.028806791944431403}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.184, 'max_10_25': 0.007, 'percScore_10_25': 0.042, 'score_at_perc_10_25': 0.038, 'score_at_perc_10_50': 0.029, 'min_10_50': 0.064, 'mean_25_75': 0.128, 'std_class_25_75': 0.006, 'max_50_100': 0.174, 'max_75_125': 0.329}</t>
+          <t>{'var_75_125': 0.122, 'mean_10_25': 0.113, 'kurt_10_25': 0.004, 'coef_var_10_25': 0.021, 'var_10_25': 0.02, 'mean_10_50': 0.057, 'max_10_50': 0.006, 'kurt_10_50': 0.003, 'min_10_50': 0.03, 'var_10_50': 0.128, 'coef_kstatvar_25_75': 0.012, 'std_class_25_75': 0.006, 'var_25_75': 0.008, 'max_50_100': 0.332, 'max_75_125': 0.011, 'min_75_125': 0.097, 'std_class_75_125': 0.029}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 88, 'max_features': 0.19459612934189, 'min_samples_leaf': 0.00841429363650289, 'min_samples_split': 0.009325673529751968}</t>
+          <t>{'max_depth': 96, 'max_features': 0.1857373306711155, 'min_samples_leaf': 0.010034569525475422, 'min_samples_split': 0.013654875813795403}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 67, 'max_features': 0.46686312143892833, 'min_samples_leaf': 0.021251043071800216, 'min_samples_split': 0.06615180124901548}</t>
+          <t>{'max_depth': 5, 'max_features': 0.4677088766564514, 'min_samples_leaf': 0.009413371689607476, 'min_samples_split': 0.05171638414067302}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.092, 'mean_10_25': 0.085, 'percScore_10_25': 0.012, 'entropy_10_25': 0.002, 'coef_kstatvar_10_25': 0.006, 'std_class_10_25': 0.059, 'min_10_50': 0.009, 'std_class_10_50': 0.026, 'var_10_50': 0.201, 'kurt_25_75': 0.012, 'min_25_75': 0.034, 'max_50_100': 0.366, 'score_at_perc_50_100': 0.001, 'score_at_perc_75_125': 0.094}</t>
+          <t>{'var_75_125': 0.062, 'mean_10_25': 0.087, 'percScore_10_25': 0.029, 'var_10_25': 0.094, 'var_10_50': 0.193, 'mean_25_75': 0.004, 'kurt_25_75': 0.013, 'min_25_75': 0.035, 'max_50_100': 0.374, 'score_at_perc_75_125': 0.077, 'min_75_125': 0.032}</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 59, 'max_features': 0.6914183058704706, 'min_samples_leaf': 0.2709383440420401, 'min_samples_split': 0.35930067884337274}</t>
+          <t>{'max_depth': 95, 'max_features': 0.682312772872914, 'min_samples_leaf': 0.1797179887592194, 'min_samples_split': 0.07984901934568833}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
